--- a/Data_clean/MCAS/Estados_US/Edos_USA_2020/NEVADA_2020.xlsx
+++ b/Data_clean/MCAS/Estados_US/Edos_USA_2020/NEVADA_2020.xlsx
@@ -351,7 +351,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D1137"/>
+  <dimension ref="A1:D1131"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -360,22 +360,22 @@
     <row r="1" s="1" customFormat="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Estado de Origen</t>
+          <t>mx_state</t>
         </is>
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>Municipio Origen</t>
+          <t>mx_municipality</t>
         </is>
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
-          <t>Número de Matrículas</t>
+          <t>n_matriculas</t>
         </is>
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
-          <t>Porcentaje de Matrículas</t>
+          <t>pct_matriculas</t>
         </is>
       </c>
     </row>
@@ -452,7 +452,7 @@
     <row r="7">
       <c r="B7" t="inlineStr">
         <is>
-          <t>Pabellón de Arteaga</t>
+          <t>Pabellón De Arteaga</t>
         </is>
       </c>
       <c r="C7">
@@ -465,7 +465,7 @@
     <row r="8">
       <c r="B8" t="inlineStr">
         <is>
-          <t>Rincón de Romos</t>
+          <t>Rincón De Romos</t>
         </is>
       </c>
       <c r="C8">
@@ -478,7 +478,7 @@
     <row r="9">
       <c r="B9" t="inlineStr">
         <is>
-          <t>San Francisco de los Romo</t>
+          <t>San Francisco De Los Romo</t>
         </is>
       </c>
       <c r="C9">
@@ -535,7 +535,7 @@
     <row r="13">
       <c r="B13" t="inlineStr">
         <is>
-          <t>Playas de Rosarito</t>
+          <t>Playas De Rosarito</t>
         </is>
       </c>
       <c r="C13">
@@ -1452,7 +1452,7 @@
     <row r="82">
       <c r="B82" t="inlineStr">
         <is>
-          <t>Guadalupe y Calvo</t>
+          <t>Guadalupe Y Calvo</t>
         </is>
       </c>
       <c r="C82">
@@ -1478,7 +1478,7 @@
     <row r="84">
       <c r="B84" t="inlineStr">
         <is>
-          <t>Hidalgo del Parral</t>
+          <t>Hidalgo Del Parral</t>
         </is>
       </c>
       <c r="C84">
@@ -1673,7 +1673,7 @@
     <row r="99">
       <c r="B99" t="inlineStr">
         <is>
-          <t>San Francisco de Borja</t>
+          <t>San Francisco De Borja</t>
         </is>
       </c>
       <c r="C99">
@@ -1686,7 +1686,7 @@
     <row r="100">
       <c r="B100" t="inlineStr">
         <is>
-          <t>San Francisco de Conchos</t>
+          <t>San Francisco De Conchos</t>
         </is>
       </c>
       <c r="C100">
@@ -1725,7 +1725,7 @@
     <row r="103">
       <c r="B103" t="inlineStr">
         <is>
-          <t>Valle de Zaragoza</t>
+          <t>Valle De Zaragoza</t>
         </is>
       </c>
       <c r="C103">
@@ -2008,7 +2008,7 @@
     <row r="124">
       <c r="B124" t="inlineStr">
         <is>
-          <t>Villa de Álvarez</t>
+          <t>Villa De Álvarez</t>
         </is>
       </c>
       <c r="C124">
@@ -2034,7 +2034,7 @@
     <row r="126">
       <c r="A126" t="inlineStr">
         <is>
-          <t>Ciudad de México</t>
+          <t>Ciudad De México</t>
         </is>
       </c>
       <c r="B126" t="inlineStr">
@@ -2091,7 +2091,7 @@
     <row r="130">
       <c r="B130" t="inlineStr">
         <is>
-          <t>Cuajimalpa de Morelos</t>
+          <t>Cuajimalpa De Morelos</t>
         </is>
       </c>
       <c r="C130">
@@ -2278,7 +2278,7 @@
     <row r="144">
       <c r="B144" t="inlineStr">
         <is>
-          <t>Coneto de Comonfort</t>
+          <t>Coneto De Comonfort</t>
         </is>
       </c>
       <c r="C144">
@@ -2551,7 +2551,7 @@
     <row r="165">
       <c r="B165" t="inlineStr">
         <is>
-          <t>San Juan del Río</t>
+          <t>San Juan Del Río</t>
         </is>
       </c>
       <c r="C165">
@@ -2668,12 +2668,12 @@
     <row r="174">
       <c r="A174" t="inlineStr">
         <is>
-          <t>Estado de México</t>
+          <t>Estado De México</t>
         </is>
       </c>
       <c r="B174" t="inlineStr">
         <is>
-          <t>Acambay de Ruíz Castañeda</t>
+          <t>Acambay De Ruíz Castañeda</t>
         </is>
       </c>
       <c r="C174">
@@ -2686,7 +2686,7 @@
     <row r="175">
       <c r="B175" t="inlineStr">
         <is>
-          <t>Almoloya de Juárez</t>
+          <t>Almoloya De Juárez</t>
         </is>
       </c>
       <c r="C175">
@@ -2751,7 +2751,7 @@
     <row r="180">
       <c r="B180" t="inlineStr">
         <is>
-          <t>Atizapán de Zaragoza</t>
+          <t>Atizapán De Zaragoza</t>
         </is>
       </c>
       <c r="C180">
@@ -2829,7 +2829,7 @@
     <row r="186">
       <c r="B186" t="inlineStr">
         <is>
-          <t>Coacalco de Berriozábal</t>
+          <t>Coacalco De Berriozábal</t>
         </is>
       </c>
       <c r="C186">
@@ -2894,7 +2894,7 @@
     <row r="191">
       <c r="B191" t="inlineStr">
         <is>
-          <t>Ecatepec de Morelos</t>
+          <t>Ecatepec De Morelos</t>
         </is>
       </c>
       <c r="C191">
@@ -2946,7 +2946,7 @@
     <row r="195">
       <c r="B195" t="inlineStr">
         <is>
-          <t>Ixtapan de la Sal</t>
+          <t>Ixtapan De La Sal</t>
         </is>
       </c>
       <c r="C195">
@@ -3050,7 +3050,7 @@
     <row r="203">
       <c r="B203" t="inlineStr">
         <is>
-          <t>Naucalpan de Juárez</t>
+          <t>Naucalpan De Juárez</t>
         </is>
       </c>
       <c r="C203">
@@ -3167,7 +3167,7 @@
     <row r="212">
       <c r="B212" t="inlineStr">
         <is>
-          <t>San Felipe del Progreso</t>
+          <t>San Felipe Del Progreso</t>
         </is>
       </c>
       <c r="C212">
@@ -3180,7 +3180,7 @@
     <row r="213">
       <c r="B213" t="inlineStr">
         <is>
-          <t>San Simón de Guerero</t>
+          <t>San Simón De Guerero</t>
         </is>
       </c>
       <c r="C213">
@@ -3297,7 +3297,7 @@
     <row r="222">
       <c r="B222" t="inlineStr">
         <is>
-          <t>Tenango del Valle</t>
+          <t>Tenango Del Valle</t>
         </is>
       </c>
       <c r="C222">
@@ -3362,7 +3362,7 @@
     <row r="227">
       <c r="B227" t="inlineStr">
         <is>
-          <t>Tlalnepantla de Baz</t>
+          <t>Tlalnepantla De Baz</t>
         </is>
       </c>
       <c r="C227">
@@ -3414,7 +3414,7 @@
     <row r="231">
       <c r="B231" t="inlineStr">
         <is>
-          <t>Valle de Bravo</t>
+          <t>Valle De Bravo</t>
         </is>
       </c>
       <c r="C231">
@@ -3427,7 +3427,7 @@
     <row r="232">
       <c r="B232" t="inlineStr">
         <is>
-          <t>Valle de Chalco Solidaridad</t>
+          <t>Valle De Chalco Solidaridad</t>
         </is>
       </c>
       <c r="C232">
@@ -3440,7 +3440,7 @@
     <row r="233">
       <c r="B233" t="inlineStr">
         <is>
-          <t>Villa de Allende</t>
+          <t>Villa De Allende</t>
         </is>
       </c>
       <c r="C233">
@@ -3544,7 +3544,7 @@
     <row r="241">
       <c r="A241" t="inlineStr">
         <is>
-          <t>GUANAJUATO</t>
+          <t>Guanajuato</t>
         </is>
       </c>
       <c r="B241" t="inlineStr">
@@ -3588,7 +3588,7 @@
     <row r="244">
       <c r="B244" t="inlineStr">
         <is>
-          <t>Apaseo el Alto</t>
+          <t>Apaseo El Alto</t>
         </is>
       </c>
       <c r="C244">
@@ -3601,7 +3601,7 @@
     <row r="245">
       <c r="B245" t="inlineStr">
         <is>
-          <t>Apaseo el Grande</t>
+          <t>Apaseo El Grande</t>
         </is>
       </c>
       <c r="C245">
@@ -3666,7 +3666,7 @@
     <row r="250">
       <c r="B250" t="inlineStr">
         <is>
-          <t>Dolores Hidalgo Cuna de la Independencia Nacional</t>
+          <t>Dolores Hidalgo Cuna De La Independencia Nacional</t>
         </is>
       </c>
       <c r="C250">
@@ -3718,7 +3718,7 @@
     <row r="254">
       <c r="B254" t="inlineStr">
         <is>
-          <t>Jaral del Progreso</t>
+          <t>Jaral Del Progreso</t>
         </is>
       </c>
       <c r="C254">
@@ -3809,7 +3809,7 @@
     <row r="261">
       <c r="B261" t="inlineStr">
         <is>
-          <t>Purísima del Rincón</t>
+          <t>Purísima Del Rincón</t>
         </is>
       </c>
       <c r="C261">
@@ -3861,7 +3861,7 @@
     <row r="265">
       <c r="B265" t="inlineStr">
         <is>
-          <t>San Diego de la Unión</t>
+          <t>San Diego De La Unión</t>
         </is>
       </c>
       <c r="C265">
@@ -3887,7 +3887,7 @@
     <row r="267">
       <c r="B267" t="inlineStr">
         <is>
-          <t>San Francisco del Rincón</t>
+          <t>San Francisco Del Rincón</t>
         </is>
       </c>
       <c r="C267">
@@ -3900,7 +3900,7 @@
     <row r="268">
       <c r="B268" t="inlineStr">
         <is>
-          <t>San Luis de la Paz</t>
+          <t>San Luis De La Paz</t>
         </is>
       </c>
       <c r="C268">
@@ -3926,7 +3926,7 @@
     <row r="270">
       <c r="B270" t="inlineStr">
         <is>
-          <t>Silao de la Victoria</t>
+          <t>Silao De La Victoria</t>
         </is>
       </c>
       <c r="C270">
@@ -3991,7 +3991,7 @@
     <row r="275">
       <c r="B275" t="inlineStr">
         <is>
-          <t>Valle de Santiago</t>
+          <t>Valle De Santiago</t>
         </is>
       </c>
       <c r="C275">
@@ -4053,7 +4053,7 @@
       </c>
       <c r="B279" t="inlineStr">
         <is>
-          <t>Acapulco de Juárez</t>
+          <t>Acapulco De Juárez</t>
         </is>
       </c>
       <c r="C279">
@@ -4066,7 +4066,7 @@
     <row r="280">
       <c r="B280" t="inlineStr">
         <is>
-          <t>Ajuchitlán del Progreso</t>
+          <t>Ajuchitlán Del Progreso</t>
         </is>
       </c>
       <c r="C280">
@@ -4105,7 +4105,7 @@
     <row r="283">
       <c r="B283" t="inlineStr">
         <is>
-          <t>Atenango del Río</t>
+          <t>Atenango Del Río</t>
         </is>
       </c>
       <c r="C283">
@@ -4118,7 +4118,7 @@
     <row r="284">
       <c r="B284" t="inlineStr">
         <is>
-          <t>Atlamajalcingo del Monte</t>
+          <t>Atlamajalcingo Del Monte</t>
         </is>
       </c>
       <c r="C284">
@@ -4144,7 +4144,7 @@
     <row r="286">
       <c r="B286" t="inlineStr">
         <is>
-          <t>Atoyac de Álvarez</t>
+          <t>Atoyac De Álvarez</t>
         </is>
       </c>
       <c r="C286">
@@ -4157,7 +4157,7 @@
     <row r="287">
       <c r="B287" t="inlineStr">
         <is>
-          <t>Ayutla de los Libres</t>
+          <t>Ayutla De Los Libres</t>
         </is>
       </c>
       <c r="C287">
@@ -4196,7 +4196,7 @@
     <row r="290">
       <c r="B290" t="inlineStr">
         <is>
-          <t>Chilapa de Álvarez</t>
+          <t>Chilapa De Álvarez</t>
         </is>
       </c>
       <c r="C290">
@@ -4209,7 +4209,7 @@
     <row r="291">
       <c r="B291" t="inlineStr">
         <is>
-          <t>Chilpancingo de los Bravo</t>
+          <t>Chilpancingo De Los Bravo</t>
         </is>
       </c>
       <c r="C291">
@@ -4222,7 +4222,7 @@
     <row r="292">
       <c r="B292" t="inlineStr">
         <is>
-          <t>Coahuayutla de José María Izazaga</t>
+          <t>Coahuayutla De José María Izazaga</t>
         </is>
       </c>
       <c r="C292">
@@ -4287,7 +4287,7 @@
     <row r="297">
       <c r="B297" t="inlineStr">
         <is>
-          <t>Coyuca de Benítez</t>
+          <t>Coyuca De Benítez</t>
         </is>
       </c>
       <c r="C297">
@@ -4300,7 +4300,7 @@
     <row r="298">
       <c r="B298" t="inlineStr">
         <is>
-          <t>Coyuca de Catalán</t>
+          <t>Coyuca De Catalán</t>
         </is>
       </c>
       <c r="C298">
@@ -4339,7 +4339,7 @@
     <row r="301">
       <c r="B301" t="inlineStr">
         <is>
-          <t>Cuetzala del Progreso</t>
+          <t>Cuetzala Del Progreso</t>
         </is>
       </c>
       <c r="C301">
@@ -4352,7 +4352,7 @@
     <row r="302">
       <c r="B302" t="inlineStr">
         <is>
-          <t>Cutzamala de Pinzón</t>
+          <t>Cutzamala De Pinzón</t>
         </is>
       </c>
       <c r="C302">
@@ -4417,7 +4417,7 @@
     <row r="307">
       <c r="B307" t="inlineStr">
         <is>
-          <t>Huitzuco de los Figueroa</t>
+          <t>Huitzuco De Los Figueroa</t>
         </is>
       </c>
       <c r="C307">
@@ -4430,7 +4430,7 @@
     <row r="308">
       <c r="B308" t="inlineStr">
         <is>
-          <t>Iguala de la Independencia</t>
+          <t>Iguala De La Independencia</t>
         </is>
       </c>
       <c r="C308">
@@ -4456,7 +4456,7 @@
     <row r="310">
       <c r="B310" t="inlineStr">
         <is>
-          <t>Ixcateopan de Cuauhtémoc</t>
+          <t>Ixcateopan De Cuauhtémoc</t>
         </is>
       </c>
       <c r="C310">
@@ -4469,7 +4469,7 @@
     <row r="311">
       <c r="B311" t="inlineStr">
         <is>
-          <t>Zihuatanejo de Azueta</t>
+          <t>Zihuatanejo De Azueta</t>
         </is>
       </c>
       <c r="C311">
@@ -4495,7 +4495,7 @@
     <row r="313">
       <c r="B313" t="inlineStr">
         <is>
-          <t>La Unión de Isidoro Montes de Oca</t>
+          <t>La Unión De Isidoro Montes De Oca</t>
         </is>
       </c>
       <c r="C313">
@@ -4521,7 +4521,7 @@
     <row r="315">
       <c r="B315" t="inlineStr">
         <is>
-          <t>Mártir de Cuilapan</t>
+          <t>Mártir De Cuilapan</t>
         </is>
       </c>
       <c r="C315">
@@ -4677,7 +4677,7 @@
     <row r="327">
       <c r="B327" t="inlineStr">
         <is>
-          <t>Taxco de Alarcón</t>
+          <t>Taxco De Alarcón</t>
         </is>
       </c>
       <c r="C327">
@@ -4703,7 +4703,7 @@
     <row r="329">
       <c r="B329" t="inlineStr">
         <is>
-          <t>Técpan de Galeana</t>
+          <t>Técpan De Galeana</t>
         </is>
       </c>
       <c r="C329">
@@ -4729,7 +4729,7 @@
     <row r="331">
       <c r="B331" t="inlineStr">
         <is>
-          <t>Tepecoacuilco de Trujano</t>
+          <t>Tepecoacuilco De Trujano</t>
         </is>
       </c>
       <c r="C331">
@@ -4781,7 +4781,7 @@
     <row r="335">
       <c r="B335" t="inlineStr">
         <is>
-          <t>Tlapa de Comonfort</t>
+          <t>Tlapa De Comonfort</t>
         </is>
       </c>
       <c r="C335">
@@ -4955,7 +4955,7 @@
     <row r="348">
       <c r="B348" t="inlineStr">
         <is>
-          <t>Atotonilco el Grande</t>
+          <t>Atotonilco El Grande</t>
         </is>
       </c>
       <c r="C348">
@@ -5033,7 +5033,7 @@
     <row r="354">
       <c r="B354" t="inlineStr">
         <is>
-          <t>Cuautepec de Hinojosa</t>
+          <t>Cuautepec De Hinojosa</t>
         </is>
       </c>
       <c r="C354">
@@ -5085,7 +5085,7 @@
     <row r="358">
       <c r="B358" t="inlineStr">
         <is>
-          <t>Jacala de Ledezma</t>
+          <t>Jacala De Ledezma</t>
         </is>
       </c>
       <c r="C358">
@@ -5137,7 +5137,7 @@
     <row r="362">
       <c r="B362" t="inlineStr">
         <is>
-          <t>Mineral del Monte</t>
+          <t>Mineral Del Monte</t>
         </is>
       </c>
       <c r="C362">
@@ -5150,7 +5150,7 @@
     <row r="363">
       <c r="B363" t="inlineStr">
         <is>
-          <t>Mixquiahuala de Juárez</t>
+          <t>Mixquiahuala De Juárez</t>
         </is>
       </c>
       <c r="C363">
@@ -5176,7 +5176,7 @@
     <row r="365">
       <c r="B365" t="inlineStr">
         <is>
-          <t>Nopala de Villagrán</t>
+          <t>Nopala De Villagrán</t>
         </is>
       </c>
       <c r="C365">
@@ -5189,7 +5189,7 @@
     <row r="366">
       <c r="B366" t="inlineStr">
         <is>
-          <t>Pachuca de Soto</t>
+          <t>Pachuca De Soto</t>
         </is>
       </c>
       <c r="C366">
@@ -5202,7 +5202,7 @@
     <row r="367">
       <c r="B367" t="inlineStr">
         <is>
-          <t>Progreso de Obregón</t>
+          <t>Progreso De Obregón</t>
         </is>
       </c>
       <c r="C367">
@@ -5267,7 +5267,7 @@
     <row r="372">
       <c r="B372" t="inlineStr">
         <is>
-          <t>Santiago de Anaya</t>
+          <t>Santiago De Anaya</t>
         </is>
       </c>
       <c r="C372">
@@ -5280,7 +5280,7 @@
     <row r="373">
       <c r="B373" t="inlineStr">
         <is>
-          <t>Tenango de Doria</t>
+          <t>Tenango De Doria</t>
         </is>
       </c>
       <c r="C373">
@@ -5306,7 +5306,7 @@
     <row r="375">
       <c r="B375" t="inlineStr">
         <is>
-          <t>Tepehuacán de Guerero</t>
+          <t>Tepehuacán De Guerero</t>
         </is>
       </c>
       <c r="C375">
@@ -5319,7 +5319,7 @@
     <row r="376">
       <c r="B376" t="inlineStr">
         <is>
-          <t>Tepeji del Río de Ocampo</t>
+          <t>Tepeji Del Río De Ocampo</t>
         </is>
       </c>
       <c r="C376">
@@ -5345,7 +5345,7 @@
     <row r="378">
       <c r="B378" t="inlineStr">
         <is>
-          <t>Tezontepec de Aldama</t>
+          <t>Tezontepec De Aldama</t>
         </is>
       </c>
       <c r="C378">
@@ -5436,7 +5436,7 @@
     <row r="385">
       <c r="B385" t="inlineStr">
         <is>
-          <t>Tula de Allende</t>
+          <t>Tula De Allende</t>
         </is>
       </c>
       <c r="C385">
@@ -5449,7 +5449,7 @@
     <row r="386">
       <c r="B386" t="inlineStr">
         <is>
-          <t>Tulancingo de Bravo</t>
+          <t>Tulancingo De Bravo</t>
         </is>
       </c>
       <c r="C386">
@@ -5462,7 +5462,7 @@
     <row r="387">
       <c r="B387" t="inlineStr">
         <is>
-          <t>Villa de Tezontepec</t>
+          <t>Villa De Tezontepec</t>
         </is>
       </c>
       <c r="C387">
@@ -5488,7 +5488,7 @@
     <row r="389">
       <c r="B389" t="inlineStr">
         <is>
-          <t>Zacualtipán de Ángeles</t>
+          <t>Zacualtipán De Ángeles</t>
         </is>
       </c>
       <c r="C389">
@@ -5558,7 +5558,7 @@
     <row r="394">
       <c r="B394" t="inlineStr">
         <is>
-          <t>Acatlán de Juárez</t>
+          <t>Acatlán De Juárez</t>
         </is>
       </c>
       <c r="C394">
@@ -5571,7 +5571,7 @@
     <row r="395">
       <c r="B395" t="inlineStr">
         <is>
-          <t>Ahualulco de Mercado</t>
+          <t>Ahualulco De Mercado</t>
         </is>
       </c>
       <c r="C395">
@@ -5636,7 +5636,7 @@
     <row r="400">
       <c r="B400" t="inlineStr">
         <is>
-          <t>Atemajac de Brizuela</t>
+          <t>Atemajac De Brizuela</t>
         </is>
       </c>
       <c r="C400">
@@ -5662,7 +5662,7 @@
     <row r="402">
       <c r="B402" t="inlineStr">
         <is>
-          <t>Atotonilco el Alto</t>
+          <t>Atotonilco El Alto</t>
         </is>
       </c>
       <c r="C402">
@@ -5688,7 +5688,7 @@
     <row r="404">
       <c r="B404" t="inlineStr">
         <is>
-          <t>Autlán de Navarro</t>
+          <t>Autlán De Navarro</t>
         </is>
       </c>
       <c r="C404">
@@ -5740,7 +5740,7 @@
     <row r="408">
       <c r="B408" t="inlineStr">
         <is>
-          <t>Cañadas de Obregón</t>
+          <t>Cañadas De Obregón</t>
         </is>
       </c>
       <c r="C408">
@@ -5831,7 +5831,7 @@
     <row r="415">
       <c r="B415" t="inlineStr">
         <is>
-          <t>Concepción de Buenos Aires</t>
+          <t>Concepción De Buenos Aires</t>
         </is>
       </c>
       <c r="C415">
@@ -5844,7 +5844,7 @@
     <row r="416">
       <c r="B416" t="inlineStr">
         <is>
-          <t>Cuautitlán de García Barragán</t>
+          <t>Cuautitlán De García Barragán</t>
         </is>
       </c>
       <c r="C416">
@@ -5935,7 +5935,7 @@
     <row r="423">
       <c r="B423" t="inlineStr">
         <is>
-          <t>Encarnación de Díaz</t>
+          <t>Encarnación De Díaz</t>
         </is>
       </c>
       <c r="C423">
@@ -6000,7 +6000,7 @@
     <row r="428">
       <c r="B428" t="inlineStr">
         <is>
-          <t>Huejuquilla el Alto</t>
+          <t>Huejuquilla El Alto</t>
         </is>
       </c>
       <c r="C428">
@@ -6013,7 +6013,7 @@
     <row r="429">
       <c r="B429" t="inlineStr">
         <is>
-          <t>Ixtlahuacán de los Membrillos</t>
+          <t>Ixtlahuacán De Los Membrillos</t>
         </is>
       </c>
       <c r="C429">
@@ -6026,7 +6026,7 @@
     <row r="430">
       <c r="B430" t="inlineStr">
         <is>
-          <t>Ixtlahuacán del Río</t>
+          <t>Ixtlahuacán Del Río</t>
         </is>
       </c>
       <c r="C430">
@@ -6078,7 +6078,7 @@
     <row r="434">
       <c r="B434" t="inlineStr">
         <is>
-          <t>Jilotlán de los Dolores</t>
+          <t>Jilotlán De Los Dolores</t>
         </is>
       </c>
       <c r="C434">
@@ -6156,7 +6156,7 @@
     <row r="440">
       <c r="B440" t="inlineStr">
         <is>
-          <t>Lagos de Moreno</t>
+          <t>Lagos De Moreno</t>
         </is>
       </c>
       <c r="C440">
@@ -6221,7 +6221,7 @@
     <row r="445">
       <c r="B445" t="inlineStr">
         <is>
-          <t>Ojuelos de Jalisco</t>
+          <t>Ojuelos De Jalisco</t>
         </is>
       </c>
       <c r="C445">
@@ -6286,7 +6286,7 @@
     <row r="450">
       <c r="B450" t="inlineStr">
         <is>
-          <t>San Diego de Alejandría</t>
+          <t>San Diego De Alejandría</t>
         </is>
       </c>
       <c r="C450">
@@ -6312,7 +6312,7 @@
     <row r="452">
       <c r="B452" t="inlineStr">
         <is>
-          <t>San Juan de los Lagos</t>
+          <t>San Juan De Los Lagos</t>
         </is>
       </c>
       <c r="C452">
@@ -6325,7 +6325,7 @@
     <row r="453">
       <c r="B453" t="inlineStr">
         <is>
-          <t>San Juanito de Escobedo</t>
+          <t>San Juanito De Escobedo</t>
         </is>
       </c>
       <c r="C453">
@@ -6364,7 +6364,7 @@
     <row r="456">
       <c r="B456" t="inlineStr">
         <is>
-          <t>San Martín de Bolaños</t>
+          <t>San Martín De Bolaños</t>
         </is>
       </c>
       <c r="C456">
@@ -6390,7 +6390,7 @@
     <row r="458">
       <c r="B458" t="inlineStr">
         <is>
-          <t>San Miguel el Alto</t>
+          <t>San Miguel El Alto</t>
         </is>
       </c>
       <c r="C458">
@@ -6403,7 +6403,7 @@
     <row r="459">
       <c r="B459" t="inlineStr">
         <is>
-          <t>San Sebastián del Oeste</t>
+          <t>San Sebastián Del Oeste</t>
         </is>
       </c>
       <c r="C459">
@@ -6416,7 +6416,7 @@
     <row r="460">
       <c r="B460" t="inlineStr">
         <is>
-          <t>Santa María de los Ángeles</t>
+          <t>Santa María De Los Ángeles</t>
         </is>
       </c>
       <c r="C460">
@@ -6429,7 +6429,7 @@
     <row r="461">
       <c r="B461" t="inlineStr">
         <is>
-          <t>Santa María del Oro</t>
+          <t>Santa María Del Oro</t>
         </is>
       </c>
       <c r="C461">
@@ -6468,7 +6468,7 @@
     <row r="464">
       <c r="B464" t="inlineStr">
         <is>
-          <t>Talpa de Allende</t>
+          <t>Talpa De Allende</t>
         </is>
       </c>
       <c r="C464">
@@ -6481,7 +6481,7 @@
     <row r="465">
       <c r="B465" t="inlineStr">
         <is>
-          <t>Tamazula de Gordiano</t>
+          <t>Tamazula De Gordiano</t>
         </is>
       </c>
       <c r="C465">
@@ -6546,7 +6546,7 @@
     <row r="470">
       <c r="B470" t="inlineStr">
         <is>
-          <t>Teocuitatlán de Corona</t>
+          <t>Teocuitatlán De Corona</t>
         </is>
       </c>
       <c r="C470">
@@ -6559,7 +6559,7 @@
     <row r="471">
       <c r="B471" t="inlineStr">
         <is>
-          <t>Tepatitlán de Morelos</t>
+          <t>Tepatitlán De Morelos</t>
         </is>
       </c>
       <c r="C471">
@@ -6598,7 +6598,7 @@
     <row r="474">
       <c r="B474" t="inlineStr">
         <is>
-          <t>Tizapán el Alto</t>
+          <t>Tizapán El Alto</t>
         </is>
       </c>
       <c r="C474">
@@ -6611,7 +6611,7 @@
     <row r="475">
       <c r="B475" t="inlineStr">
         <is>
-          <t>Tlajomulco de Zúñiga</t>
+          <t>Tlajomulco De Zúñiga</t>
         </is>
       </c>
       <c r="C475">
@@ -6741,7 +6741,7 @@
     <row r="485">
       <c r="B485" t="inlineStr">
         <is>
-          <t>Unión de San Antonio</t>
+          <t>Unión De San Antonio</t>
         </is>
       </c>
       <c r="C485">
@@ -6754,7 +6754,7 @@
     <row r="486">
       <c r="B486" t="inlineStr">
         <is>
-          <t>Unión de Tula</t>
+          <t>Unión De Tula</t>
         </is>
       </c>
       <c r="C486">
@@ -6767,7 +6767,7 @@
     <row r="487">
       <c r="B487" t="inlineStr">
         <is>
-          <t>Valle de Juárez</t>
+          <t>Valle De Juárez</t>
         </is>
       </c>
       <c r="C487">
@@ -6819,7 +6819,7 @@
     <row r="491">
       <c r="B491" t="inlineStr">
         <is>
-          <t>Yahualica de González Gallo</t>
+          <t>Yahualica De González Gallo</t>
         </is>
       </c>
       <c r="C491">
@@ -6832,7 +6832,7 @@
     <row r="492">
       <c r="B492" t="inlineStr">
         <is>
-          <t>Zacoalco de Torres</t>
+          <t>Zacoalco De Torres</t>
         </is>
       </c>
       <c r="C492">
@@ -6871,7 +6871,7 @@
     <row r="495">
       <c r="B495" t="inlineStr">
         <is>
-          <t>Zapotitlán de Vadillo</t>
+          <t>Zapotitlán De Vadillo</t>
         </is>
       </c>
       <c r="C495">
@@ -6884,7 +6884,7 @@
     <row r="496">
       <c r="B496" t="inlineStr">
         <is>
-          <t>Zapotlán del Rey</t>
+          <t>Zapotlán Del Rey</t>
         </is>
       </c>
       <c r="C496">
@@ -6897,7 +6897,7 @@
     <row r="497">
       <c r="B497" t="inlineStr">
         <is>
-          <t>Zapotlán el Grande</t>
+          <t>Zapotlán El Grande</t>
         </is>
       </c>
       <c r="C497">
@@ -7240,7 +7240,7 @@
     <row r="523">
       <c r="B523" t="inlineStr">
         <is>
-          <t>Coalcomán de Vázquez Pallares</t>
+          <t>Coalcomán De Vázquez Pallares</t>
         </is>
       </c>
       <c r="C523">
@@ -7266,7 +7266,7 @@
     <row r="525">
       <c r="B525" t="inlineStr">
         <is>
-          <t>Cojumatlán de Régules</t>
+          <t>Cojumatlán De Régules</t>
         </is>
       </c>
       <c r="C525">
@@ -8020,7 +8020,7 @@
     <row r="583">
       <c r="B583" t="inlineStr">
         <is>
-          <t>Tiquicheo de Nicolás Romero</t>
+          <t>Tiquicheo De Nicolás Romero</t>
         </is>
       </c>
       <c r="C583">
@@ -8441,7 +8441,7 @@
     <row r="615">
       <c r="B615" t="inlineStr">
         <is>
-          <t>Puente de Ixtla</t>
+          <t>Puente De Ixtla</t>
         </is>
       </c>
       <c r="C615">
@@ -8480,7 +8480,7 @@
     <row r="618">
       <c r="B618" t="inlineStr">
         <is>
-          <t>Tetela del Volcán</t>
+          <t>Tetela Del Volcán</t>
         </is>
       </c>
       <c r="C618">
@@ -8493,7 +8493,7 @@
     <row r="619">
       <c r="B619" t="inlineStr">
         <is>
-          <t>Tlaltizapán de Zapata</t>
+          <t>Tlaltizapán De Zapata</t>
         </is>
       </c>
       <c r="C619">
@@ -8571,7 +8571,7 @@
     <row r="625">
       <c r="B625" t="inlineStr">
         <is>
-          <t>Zacualpan de Amilpas</t>
+          <t>Zacualpan De Amilpas</t>
         </is>
       </c>
       <c r="C625">
@@ -8628,7 +8628,7 @@
     <row r="629">
       <c r="B629" t="inlineStr">
         <is>
-          <t>Amatlán de Cañas</t>
+          <t>Amatlán De Cañas</t>
         </is>
       </c>
       <c r="C629">
@@ -8641,7 +8641,7 @@
     <row r="630">
       <c r="B630" t="inlineStr">
         <is>
-          <t>Bahía de Banderas</t>
+          <t>Bahía De Banderas</t>
         </is>
       </c>
       <c r="C630">
@@ -8693,7 +8693,7 @@
     <row r="634">
       <c r="B634" t="inlineStr">
         <is>
-          <t>Ixtlán del Río</t>
+          <t>Ixtlán Del Río</t>
         </is>
       </c>
       <c r="C634">
@@ -8784,7 +8784,7 @@
     <row r="641">
       <c r="B641" t="inlineStr">
         <is>
-          <t>Santa María del Oro</t>
+          <t>Santa María Del Oro</t>
         </is>
       </c>
       <c r="C641">
@@ -8893,7 +8893,7 @@
     <row r="649">
       <c r="B649" t="inlineStr">
         <is>
-          <t>MonteMorelos</t>
+          <t>Montemorelos</t>
         </is>
       </c>
       <c r="C649">
@@ -8919,7 +8919,7 @@
     <row r="651">
       <c r="B651" t="inlineStr">
         <is>
-          <t>San Nicolás de los Garza</t>
+          <t>San Nicolás De Los Garza</t>
         </is>
       </c>
       <c r="C651">
@@ -8976,7 +8976,7 @@
     <row r="655">
       <c r="B655" t="inlineStr">
         <is>
-          <t>Acatlán de Pérez Figueroa</t>
+          <t>Acatlán De Pérez Figueroa</t>
         </is>
       </c>
       <c r="C655">
@@ -9015,7 +9015,7 @@
     <row r="658">
       <c r="B658" t="inlineStr">
         <is>
-          <t>Cuilápam de Guerero</t>
+          <t>Cuilápam De Guerero</t>
         </is>
       </c>
       <c r="C658">
@@ -9028,7 +9028,7 @@
     <row r="659">
       <c r="B659" t="inlineStr">
         <is>
-          <t>El Barrio de la Soledad</t>
+          <t>El Barrio De La Soledad</t>
         </is>
       </c>
       <c r="C659">
@@ -9041,7 +9041,7 @@
     <row r="660">
       <c r="B660" t="inlineStr">
         <is>
-          <t>Heroica Ciudad de Ejutla de Crespo</t>
+          <t>Heroica Ciudad De Ejutla De Crespo</t>
         </is>
       </c>
       <c r="C660">
@@ -9054,7 +9054,7 @@
     <row r="661">
       <c r="B661" t="inlineStr">
         <is>
-          <t>Heroica Ciudad de Huajuapan de León</t>
+          <t>Heroica Ciudad De Huajuapan De León</t>
         </is>
       </c>
       <c r="C661">
@@ -9067,7 +9067,7 @@
     <row r="662">
       <c r="B662" t="inlineStr">
         <is>
-          <t>Heroica Ciudad de Tlaxiaco</t>
+          <t>Heroica Ciudad De Tlaxiaco</t>
         </is>
       </c>
       <c r="C662">
@@ -9080,7 +9080,7 @@
     <row r="663">
       <c r="B663" t="inlineStr">
         <is>
-          <t>Ixtlán de Juárez</t>
+          <t>Ixtlán De Juárez</t>
         </is>
       </c>
       <c r="C663">
@@ -9093,7 +9093,7 @@
     <row r="664">
       <c r="B664" t="inlineStr">
         <is>
-          <t>Heroica Ciudad de Juchitán de Zaragoza</t>
+          <t>Heroica Ciudad De Juchitán De Zaragoza</t>
         </is>
       </c>
       <c r="C664">
@@ -9158,7 +9158,7 @@
     <row r="669">
       <c r="B669" t="inlineStr">
         <is>
-          <t>Mariscala de Juárez</t>
+          <t>Mariscala De Juárez</t>
         </is>
       </c>
       <c r="C669">
@@ -9171,7 +9171,7 @@
     <row r="670">
       <c r="B670" t="inlineStr">
         <is>
-          <t>Mártires de Tacubaya</t>
+          <t>Mártires De Tacubaya</t>
         </is>
       </c>
       <c r="C670">
@@ -9197,7 +9197,7 @@
     <row r="672">
       <c r="B672" t="inlineStr">
         <is>
-          <t>Miahuatlán de Porfirio Díaz</t>
+          <t>Miahuatlán De Porfirio Díaz</t>
         </is>
       </c>
       <c r="C672">
@@ -9223,7 +9223,7 @@
     <row r="674">
       <c r="B674" t="inlineStr">
         <is>
-          <t>Oaxaca de Juárez</t>
+          <t>Oaxaca De Juárez</t>
         </is>
       </c>
       <c r="C674">
@@ -9236,7 +9236,7 @@
     <row r="675">
       <c r="B675" t="inlineStr">
         <is>
-          <t>Ocotlán de Morelos</t>
+          <t>Ocotlán De Morelos</t>
         </is>
       </c>
       <c r="C675">
@@ -9249,7 +9249,7 @@
     <row r="676">
       <c r="B676" t="inlineStr">
         <is>
-          <t>Putla Villa de Guerero</t>
+          <t>Putla Villa De Guerero</t>
         </is>
       </c>
       <c r="C676">
@@ -9873,7 +9873,7 @@
     <row r="724">
       <c r="B724" t="inlineStr">
         <is>
-          <t>Santa Ana del Valle</t>
+          <t>Santa Ana Del Valle</t>
         </is>
       </c>
       <c r="C724">
@@ -9938,7 +9938,7 @@
     <row r="729">
       <c r="B729" t="inlineStr">
         <is>
-          <t>Santa Cruz Tacache de Mina</t>
+          <t>Santa Cruz Tacache De Mina</t>
         </is>
       </c>
       <c r="C729">
@@ -10003,7 +10003,7 @@
     <row r="734">
       <c r="B734" t="inlineStr">
         <is>
-          <t>Santa María Jalapa del Marqués</t>
+          <t>Santa María Jalapa Del Marqués</t>
         </is>
       </c>
       <c r="C734">
@@ -10198,7 +10198,7 @@
     <row r="749">
       <c r="B749" t="inlineStr">
         <is>
-          <t>Tamazulápam del Espíritu Santo</t>
+          <t>Tamazulápam Del Espíritu Santo</t>
         </is>
       </c>
       <c r="C749">
@@ -10211,7 +10211,7 @@
     <row r="750">
       <c r="B750" t="inlineStr">
         <is>
-          <t>Teococuilco de Marcos Pérez</t>
+          <t>Teococuilco De Marcos Pérez</t>
         </is>
       </c>
       <c r="C750">
@@ -10224,7 +10224,7 @@
     <row r="751">
       <c r="B751" t="inlineStr">
         <is>
-          <t>Teotitlán de Flores Magón</t>
+          <t>Teotitlán De Flores Magón</t>
         </is>
       </c>
       <c r="C751">
@@ -10237,7 +10237,7 @@
     <row r="752">
       <c r="B752" t="inlineStr">
         <is>
-          <t>Tlacolula de Matamoros</t>
+          <t>Tlacolula De Matamoros</t>
         </is>
       </c>
       <c r="C752">
@@ -10250,7 +10250,7 @@
     <row r="753">
       <c r="B753" t="inlineStr">
         <is>
-          <t>Villa de Etla</t>
+          <t>Villa De Etla</t>
         </is>
       </c>
       <c r="C753">
@@ -10263,7 +10263,7 @@
     <row r="754">
       <c r="B754" t="inlineStr">
         <is>
-          <t>Villa de Tututepec de Melchor Ocampo</t>
+          <t>Villa De Tututepec De Melchor Ocampo</t>
         </is>
       </c>
       <c r="C754">
@@ -10289,7 +10289,7 @@
     <row r="756">
       <c r="B756" t="inlineStr">
         <is>
-          <t>Villa Sola de Vega</t>
+          <t>Villa Sola De Vega</t>
         </is>
       </c>
       <c r="C756">
@@ -10302,7 +10302,7 @@
     <row r="757">
       <c r="B757" t="inlineStr">
         <is>
-          <t>Zapotitlán del Río</t>
+          <t>Zapotitlán Del Río</t>
         </is>
       </c>
       <c r="C757">
@@ -10315,7 +10315,7 @@
     <row r="758">
       <c r="B758" t="inlineStr">
         <is>
-          <t>Zimatlán de Álvarez</t>
+          <t>Zimatlán De Álvarez</t>
         </is>
       </c>
       <c r="C758">
@@ -10515,7 +10515,7 @@
     <row r="773">
       <c r="B773" t="inlineStr">
         <is>
-          <t>Chalchicomula de Sesma</t>
+          <t>Chalchicomula De Sesma</t>
         </is>
       </c>
       <c r="C773">
@@ -10619,7 +10619,7 @@
     <row r="781">
       <c r="B781" t="inlineStr">
         <is>
-          <t>Chila de la Sal</t>
+          <t>Chila De La Sal</t>
         </is>
       </c>
       <c r="C781">
@@ -10684,7 +10684,7 @@
     <row r="786">
       <c r="B786" t="inlineStr">
         <is>
-          <t>Cuapiaxtla de Madero</t>
+          <t>Cuapiaxtla De Madero</t>
         </is>
       </c>
       <c r="C786">
@@ -10710,7 +10710,7 @@
     <row r="788">
       <c r="B788" t="inlineStr">
         <is>
-          <t>Cuayuca de Andrade</t>
+          <t>Cuayuca De Andrade</t>
         </is>
       </c>
       <c r="C788">
@@ -10723,7 +10723,7 @@
     <row r="789">
       <c r="B789" t="inlineStr">
         <is>
-          <t>Cuetzalan del Progreso</t>
+          <t>Cuetzalan Del Progreso</t>
         </is>
       </c>
       <c r="C789">
@@ -10801,7 +10801,7 @@
     <row r="795">
       <c r="B795" t="inlineStr">
         <is>
-          <t>Huehuetlán el Chico</t>
+          <t>Huehuetlán El Chico</t>
         </is>
       </c>
       <c r="C795">
@@ -10814,7 +10814,7 @@
     <row r="796">
       <c r="B796" t="inlineStr">
         <is>
-          <t>Huehuetlán el Grande</t>
+          <t>Huehuetlán El Grande</t>
         </is>
       </c>
       <c r="C796">
@@ -10840,7 +10840,7 @@
     <row r="798">
       <c r="B798" t="inlineStr">
         <is>
-          <t>Ixcamilpa de Guerero</t>
+          <t>Ixcamilpa De Guerero</t>
         </is>
       </c>
       <c r="C798">
@@ -10879,7 +10879,7 @@
     <row r="801">
       <c r="B801" t="inlineStr">
         <is>
-          <t>Izúcar de Matamoros</t>
+          <t>Izúcar De Matamoros</t>
         </is>
       </c>
       <c r="C801">
@@ -10957,7 +10957,7 @@
     <row r="807">
       <c r="B807" t="inlineStr">
         <is>
-          <t>Los Reyes de Juárez</t>
+          <t>Los Reyes De Juárez</t>
         </is>
       </c>
       <c r="C807">
@@ -11035,7 +11035,7 @@
     <row r="813">
       <c r="B813" t="inlineStr">
         <is>
-          <t>Palmar de Bravo</t>
+          <t>Palmar De Bravo</t>
         </is>
       </c>
       <c r="C813">
@@ -11230,7 +11230,7 @@
     <row r="828">
       <c r="B828" t="inlineStr">
         <is>
-          <t>San Nicolás de los Ranchos</t>
+          <t>San Nicolás De Los Ranchos</t>
         </is>
       </c>
       <c r="C828">
@@ -11256,7 +11256,7 @@
     <row r="830">
       <c r="B830" t="inlineStr">
         <is>
-          <t>San Salvador el Seco</t>
+          <t>San Salvador El Seco</t>
         </is>
       </c>
       <c r="C830">
@@ -11269,7 +11269,7 @@
     <row r="831">
       <c r="B831" t="inlineStr">
         <is>
-          <t>San Salvador el Verde</t>
+          <t>San Salvador El Verde</t>
         </is>
       </c>
       <c r="C831">
@@ -11373,7 +11373,7 @@
     <row r="839">
       <c r="B839" t="inlineStr">
         <is>
-          <t>Tepanco de López</t>
+          <t>Tepanco De López</t>
         </is>
       </c>
       <c r="C839">
@@ -11386,7 +11386,7 @@
     <row r="840">
       <c r="B840" t="inlineStr">
         <is>
-          <t>Tepatlaxco de Hidalgo</t>
+          <t>Tepatlaxco De Hidalgo</t>
         </is>
       </c>
       <c r="C840">
@@ -11451,7 +11451,7 @@
     <row r="845">
       <c r="B845" t="inlineStr">
         <is>
-          <t>Tepexi de Rodríguez</t>
+          <t>Tepexi De Rodríguez</t>
         </is>
       </c>
       <c r="C845">
@@ -11464,7 +11464,7 @@
     <row r="846">
       <c r="B846" t="inlineStr">
         <is>
-          <t>Tetela de Ocampo</t>
+          <t>Tetela De Ocampo</t>
         </is>
       </c>
       <c r="C846">
@@ -11516,7 +11516,7 @@
     <row r="850">
       <c r="B850" t="inlineStr">
         <is>
-          <t>Tlacotepec de Benito Juárez</t>
+          <t>Tlacotepec De Benito Juárez</t>
         </is>
       </c>
       <c r="C850">
@@ -11633,7 +11633,7 @@
     <row r="859">
       <c r="B859" t="inlineStr">
         <is>
-          <t>Xayacatlán de Bravo</t>
+          <t>Xayacatlán De Bravo</t>
         </is>
       </c>
       <c r="C859">
@@ -11685,7 +11685,7 @@
     <row r="863">
       <c r="B863" t="inlineStr">
         <is>
-          <t>Xochitlán de Vicente Suárez</t>
+          <t>Xochitlán De Vicente Suárez</t>
         </is>
       </c>
       <c r="C863">
@@ -11820,7 +11820,7 @@
       </c>
       <c r="B873" t="inlineStr">
         <is>
-          <t>Amealco de Bonfil</t>
+          <t>Amealco De Bonfil</t>
         </is>
       </c>
       <c r="C873">
@@ -11833,7 +11833,7 @@
     <row r="874">
       <c r="B874" t="inlineStr">
         <is>
-          <t>Cadereyta de Montes</t>
+          <t>Cadereyta De Montes</t>
         </is>
       </c>
       <c r="C874">
@@ -11898,7 +11898,7 @@
     <row r="879">
       <c r="B879" t="inlineStr">
         <is>
-          <t>Landa de Matamoros</t>
+          <t>Landa De Matamoros</t>
         </is>
       </c>
       <c r="C879">
@@ -11911,7 +11911,7 @@
     <row r="880">
       <c r="B880" t="inlineStr">
         <is>
-          <t>Pinal de Amoles</t>
+          <t>Pinal De Amoles</t>
         </is>
       </c>
       <c r="C880">
@@ -11950,7 +11950,7 @@
     <row r="883">
       <c r="B883" t="inlineStr">
         <is>
-          <t>San Juan del Río</t>
+          <t>San Juan Del Río</t>
         </is>
       </c>
       <c r="C883">
@@ -12051,7 +12051,7 @@
     <row r="890">
       <c r="B890" t="inlineStr">
         <is>
-          <t>Axtla de Terrazas</t>
+          <t>Axtla De Terrazas</t>
         </is>
       </c>
       <c r="C890">
@@ -12142,7 +12142,7 @@
     <row r="897">
       <c r="B897" t="inlineStr">
         <is>
-          <t>Mexquitic de Carmona</t>
+          <t>Mexquitic De Carmona</t>
         </is>
       </c>
       <c r="C897">
@@ -12181,7 +12181,7 @@
     <row r="900">
       <c r="B900" t="inlineStr">
         <is>
-          <t>Santa María del Río</t>
+          <t>Santa María Del Río</t>
         </is>
       </c>
       <c r="C900">
@@ -12246,7 +12246,7 @@
     <row r="905">
       <c r="B905" t="inlineStr">
         <is>
-          <t>Villa de Arriaga</t>
+          <t>Villa De Arriaga</t>
         </is>
       </c>
       <c r="C905">
@@ -12259,7 +12259,7 @@
     <row r="906">
       <c r="B906" t="inlineStr">
         <is>
-          <t>Villa de Guadalupe</t>
+          <t>Villa De Guadalupe</t>
         </is>
       </c>
       <c r="C906">
@@ -12272,7 +12272,7 @@
     <row r="907">
       <c r="B907" t="inlineStr">
         <is>
-          <t>Villa de Ramos</t>
+          <t>Villa De Ramos</t>
         </is>
       </c>
       <c r="C907">
@@ -12285,7 +12285,7 @@
     <row r="908">
       <c r="B908" t="inlineStr">
         <is>
-          <t>Villa de Reyes</t>
+          <t>Villa De Reyes</t>
         </is>
       </c>
       <c r="C908">
@@ -12789,7 +12789,7 @@
     <row r="946">
       <c r="B946" t="inlineStr">
         <is>
-          <t>Nacozari de García</t>
+          <t>Nacozari De García</t>
         </is>
       </c>
       <c r="C946">
@@ -13002,7 +13002,7 @@
     <row r="962">
       <c r="B962" t="inlineStr">
         <is>
-          <t>Jalpa de Méndez</t>
+          <t>Jalpa De Méndez</t>
         </is>
       </c>
       <c r="C962">
@@ -13285,7 +13285,7 @@
     <row r="983">
       <c r="B983" t="inlineStr">
         <is>
-          <t>Nanacamilpa de Mariano Arista</t>
+          <t>Nanacamilpa De Mariano Arista</t>
         </is>
       </c>
       <c r="C983">
@@ -13498,7 +13498,7 @@
     <row r="999">
       <c r="B999" t="inlineStr">
         <is>
-          <t>Alto Lucero de Gutiérrez Barrios</t>
+          <t>Alto Lucero De Gutiérrez Barrios</t>
         </is>
       </c>
       <c r="C999">
@@ -13602,7 +13602,7 @@
     <row r="1007">
       <c r="B1007" t="inlineStr">
         <is>
-          <t>Castillo de Teayo</t>
+          <t>Castillo De Teayo</t>
         </is>
       </c>
       <c r="C1007">
@@ -13628,7 +13628,7 @@
     <row r="1009">
       <c r="B1009" t="inlineStr">
         <is>
-          <t>Cazones de Herrera</t>
+          <t>Cazones De Herrera</t>
         </is>
       </c>
       <c r="C1009">
@@ -13706,7 +13706,7 @@
     <row r="1015">
       <c r="B1015" t="inlineStr">
         <is>
-          <t>Cosamaloapan de Carpio</t>
+          <t>Cosamaloapan De Carpio</t>
         </is>
       </c>
       <c r="C1015">
@@ -13784,7 +13784,7 @@
     <row r="1021">
       <c r="B1021" t="inlineStr">
         <is>
-          <t>Huiloapan de Cuauhtémoc</t>
+          <t>Huiloapan De Cuauhtémoc</t>
         </is>
       </c>
       <c r="C1021">
@@ -13823,7 +13823,7 @@
     <row r="1024">
       <c r="B1024" t="inlineStr">
         <is>
-          <t>Ixhuatlán de Madero</t>
+          <t>Ixhuatlán De Madero</t>
         </is>
       </c>
       <c r="C1024">
@@ -13836,7 +13836,7 @@
     <row r="1025">
       <c r="B1025" t="inlineStr">
         <is>
-          <t>Ixhuatlán del Café</t>
+          <t>Ixhuatlán Del Café</t>
         </is>
       </c>
       <c r="C1025">
@@ -13849,7 +13849,7 @@
     <row r="1026">
       <c r="B1026" t="inlineStr">
         <is>
-          <t>Ixhuatlán del Sureste</t>
+          <t>Ixhuatlán Del Sureste</t>
         </is>
       </c>
       <c r="C1026">
@@ -13966,7 +13966,7 @@
     <row r="1035">
       <c r="B1035" t="inlineStr">
         <is>
-          <t>Lerdo de Tejada</t>
+          <t>Lerdo De Tejada</t>
         </is>
       </c>
       <c r="C1035">
@@ -14018,7 +14018,7 @@
     <row r="1039">
       <c r="B1039" t="inlineStr">
         <is>
-          <t>Martínez de la Torre</t>
+          <t>Martínez De La Torre</t>
         </is>
       </c>
       <c r="C1039">
@@ -14031,7 +14031,7 @@
     <row r="1040">
       <c r="B1040" t="inlineStr">
         <is>
-          <t>Medellín de Bravo</t>
+          <t>Medellín De Bravo</t>
         </is>
       </c>
       <c r="C1040">
@@ -14161,7 +14161,7 @@
     <row r="1050">
       <c r="B1050" t="inlineStr">
         <is>
-          <t>Paso de Ovejas</t>
+          <t>Paso De Ovejas</t>
         </is>
       </c>
       <c r="C1050">
@@ -14174,7 +14174,7 @@
     <row r="1051">
       <c r="B1051" t="inlineStr">
         <is>
-          <t>Paso del Macho</t>
+          <t>Paso Del Macho</t>
         </is>
       </c>
       <c r="C1051">
@@ -14226,7 +14226,7 @@
     <row r="1055">
       <c r="B1055" t="inlineStr">
         <is>
-          <t>Poza Rica de Hidalgo</t>
+          <t>Poza Rica De Hidalgo</t>
         </is>
       </c>
       <c r="C1055">
@@ -14291,7 +14291,7 @@
     <row r="1060">
       <c r="B1060" t="inlineStr">
         <is>
-          <t>Sayula de Alemán</t>
+          <t>Sayula De Alemán</t>
         </is>
       </c>
       <c r="C1060">
@@ -14330,7 +14330,7 @@
     <row r="1063">
       <c r="B1063" t="inlineStr">
         <is>
-          <t>Soledad de Doblado</t>
+          <t>Soledad De Doblado</t>
         </is>
       </c>
       <c r="C1063">
@@ -14743,7 +14743,7 @@
     <row r="1094">
       <c r="B1094" t="inlineStr">
         <is>
-          <t>Concepción del Oro</t>
+          <t>Concepción Del Oro</t>
         </is>
       </c>
       <c r="C1094">
@@ -14769,7 +14769,7 @@
     <row r="1096">
       <c r="B1096" t="inlineStr">
         <is>
-          <t>El Plateado de Joaquín Amaro</t>
+          <t>El Plateado De Joaquín Amaro</t>
         </is>
       </c>
       <c r="C1096">
@@ -14925,7 +14925,7 @@
     <row r="1108">
       <c r="B1108" t="inlineStr">
         <is>
-          <t>Mezquital del Oro</t>
+          <t>Mezquital Del Oro</t>
         </is>
       </c>
       <c r="C1108">
@@ -14964,7 +14964,7 @@
     <row r="1111">
       <c r="B1111" t="inlineStr">
         <is>
-          <t>Moyahua de Estrada</t>
+          <t>Moyahua De Estrada</t>
         </is>
       </c>
       <c r="C1111">
@@ -14977,7 +14977,7 @@
     <row r="1112">
       <c r="B1112" t="inlineStr">
         <is>
-          <t>Nochistlán de Mejía</t>
+          <t>Nochistlán De Mejía</t>
         </is>
       </c>
       <c r="C1112">
@@ -15107,7 +15107,7 @@
     <row r="1122">
       <c r="B1122" t="inlineStr">
         <is>
-          <t>Teúl de González Ortega</t>
+          <t>Teúl De González Ortega</t>
         </is>
       </c>
       <c r="C1122">
@@ -15120,7 +15120,7 @@
     <row r="1123">
       <c r="B1123" t="inlineStr">
         <is>
-          <t>Tlaltenango de Sánchez Román</t>
+          <t>Tlaltenango De Sánchez Román</t>
         </is>
       </c>
       <c r="C1123">
@@ -15159,7 +15159,7 @@
     <row r="1126">
       <c r="B1126" t="inlineStr">
         <is>
-          <t>Villa de Cos</t>
+          <t>Villa De Cos</t>
         </is>
       </c>
       <c r="C1126">
@@ -15232,41 +15232,6 @@
       </c>
       <c r="D1131">
         <v>1</v>
-      </c>
-    </row>
-    <row r="1133">
-      <c r="B1133" t="inlineStr">
-        <is>
-          <t>Tamaño de la muestra: 497,795</t>
-        </is>
-      </c>
-    </row>
-    <row r="1134">
-      <c r="B1134" t="inlineStr">
-        <is>
-          <t>Fuente: Expedición de Matrículas Consulares de Alta Seguridad en los Consulados de México en E.E.U.U.</t>
-        </is>
-      </c>
-    </row>
-    <row r="1135">
-      <c r="B1135" t="inlineStr">
-        <is>
-          <t>Elaborado por: Análisis de Información, Instituto de los Mexicanos en el Exterior</t>
-        </is>
-      </c>
-    </row>
-    <row r="1136">
-      <c r="B1136" t="inlineStr">
-        <is>
-          <t>Secretaría de Relaciones Exteriores</t>
-        </is>
-      </c>
-    </row>
-    <row r="1137">
-      <c r="B1137" t="inlineStr">
-        <is>
-          <t>Octubre de 2021</t>
-        </is>
       </c>
     </row>
   </sheetData>
